--- a/pwbi/Modello Architettonico/namestreet.xlsx
+++ b/pwbi/Modello Architettonico/namestreet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Modello Architettonico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5801D89-94F9-4BA1-8DF3-8125822B90ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595C58C4-88B4-4237-BE20-5F4B9EBEED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Object ID</t>
   </si>
@@ -533,23 +533,17 @@
     <t>BEAM</t>
   </si>
   <si>
-    <t>Tipe</t>
-  </si>
-  <si>
-    <t>pavimento</t>
-  </si>
-  <si>
-    <t>pavimento 2</t>
-  </si>
-  <si>
-    <t>pavimento 1</t>
+    <t>Pav1</t>
+  </si>
+  <si>
+    <t>Pav2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +674,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1035,9 +1035,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1393,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,7 +1402,7 @@
     <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1414,11 +1412,8 @@
       <c r="E1" t="s">
         <v>165</v>
       </c>
-      <c r="F1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1421,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1434,7 +1429,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1442,7 +1437,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1445,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1453,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1466,7 +1461,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1469,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1477,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1485,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1493,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1506,7 +1501,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1509,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1522,7 +1517,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1530,7 +1525,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1533,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1546,7 +1541,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1554,7 +1549,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1557,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1570,7 +1565,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1578,13 +1573,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1592,7 +1584,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1600,7 +1592,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1600,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1616,7 +1608,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1624,7 +1616,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1632,7 +1624,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1632,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1648,7 +1640,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1656,7 +1648,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1664,7 +1656,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2568,7 +2560,7 @@
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -2576,7 +2568,7 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -2584,13 +2576,10 @@
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -2598,7 +2587,7 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -2606,7 +2595,7 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -2614,7 +2603,7 @@
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -2622,7 +2611,7 @@
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -2630,7 +2619,7 @@
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -2638,7 +2627,7 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -2646,7 +2635,7 @@
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -2654,7 +2643,7 @@
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -2662,7 +2651,7 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -2670,7 +2659,7 @@
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -2678,7 +2667,7 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -2686,7 +2675,7 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -2694,7 +2683,7 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -2743,173 +2732,7 @@
       <c r="D165" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="165">
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>